--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44503</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43549</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44755</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45021</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>44022</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43734</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44535</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43381</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43718</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44078</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44516</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44854</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44862</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45014</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45024</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43374</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43376</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43381</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43385</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43388</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43404</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43409</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43418</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43419</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43423</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43426</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43434</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43437</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43439</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43467</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43472</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43497</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43507</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>43538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>43567</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43570</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43572</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43574</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43591</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43594</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43599</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43602</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43609</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43626</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43635</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43647</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43650</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43655</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43661</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43672</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43678</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43690</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43692</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43699</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43710</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43725</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43752</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43756</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43762</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43773</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43776</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43780</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43782</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43791</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>43846</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43850</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43858</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43861</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43892</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>43895</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>43910</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>43937</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>43938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>43941</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43966</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43969</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>43976</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43978</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>43979</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43987</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43991</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43997</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>44012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44015</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44018</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44021</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44025</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44028</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44039</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44060</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44071</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44081</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44083</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44088</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44091</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44097</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44117</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44123</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44147</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44151</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44155</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44158</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44169</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44172</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44173</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44174</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44218</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44231</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44237</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44277</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>44278</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>44279</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44308</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44319</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>44320</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44322</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44364</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44369</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44370</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44376</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44379</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44383</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44385</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44387</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44389</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44392</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44401</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44412</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44417</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44424</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44427</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44438</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44442</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44449</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44451</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44453</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44462</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44464</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44489</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44504</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44513</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44517</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44521</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44539</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44568</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44574</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44578</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44587</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44588</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44608</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44615</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44622</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44627</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44634</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44636</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44641</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>44642</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44684</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44687</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44691</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44700</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44715</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44727</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>44728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44743</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>44749</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44755</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44756</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44760</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44790</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44791</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44796</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44804</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44816</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44818</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44820</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44824</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44833</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44834</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44837</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44839</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44844</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44848</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44853</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44854</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44859</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44860</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44861</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44862</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44869</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44879</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44882</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>44884</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44887</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>44892</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44893</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44894</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44895</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44908</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44910</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44911</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>44916</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44923</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44930</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44944</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44945</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44954</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44958</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44959</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>44964</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44968</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>44973</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44985</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44987</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44988</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45002</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45006</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45012</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45014</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45036</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45055</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45062</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45064</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45072</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45079</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45085</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45098</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45099</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45103</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45105</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45107</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45110</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>45112</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45113</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45117</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>45118</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>45121</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -646,27 +646,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 32706-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 32706-2023.xlsx", "A 32706-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 32706-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 32706-2023.png", "A 32706-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 32706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 32706-2023.docx", "A 32706-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 32706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 32706-2023.docx", "A 32706-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 32706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 32706-2023.docx", "A 32706-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 32706-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 32706-2023.docx", "A 32706-2023")</f>
         <v/>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,27 +751,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 48263-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 48263-2021.xlsx", "A 48263-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 48263-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 48263-2021.png", "A 48263-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 48263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 48263-2021.docx", "A 48263-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 48263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 48263-2021.docx", "A 48263-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 48263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 48263-2021.docx", "A 48263-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 48263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 48263-2021.docx", "A 48263-2021")</f>
         <v/>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,27 +853,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 62607-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 62607-2021.xlsx", "A 62607-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 62607-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 62607-2021.png", "A 62607-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 62607-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 62607-2021.docx", "A 62607-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 62607-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 62607-2021.docx", "A 62607-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 62607-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 62607-2021.docx", "A 62607-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 62607-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 62607-2021.docx", "A 62607-2021")</f>
         <v/>
       </c>
     </row>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,27 +951,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 34648-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 34648-2020.xlsx", "A 34648-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 34648-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 34648-2020.png", "A 34648-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 34648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 34648-2020.docx", "A 34648-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 34648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 34648-2020.docx", "A 34648-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 34648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 34648-2020.docx", "A 34648-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 34648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 34648-2020.docx", "A 34648-2020")</f>
         <v/>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,27 +1049,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 58129-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 58129-2021.xlsx", "A 58129-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 58129-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 58129-2021.png", "A 58129-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 58129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 58129-2021.docx", "A 58129-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 58129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 58129-2021.docx", "A 58129-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 58129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 58129-2021.docx", "A 58129-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 58129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 58129-2021.docx", "A 58129-2021")</f>
         <v/>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,27 +1143,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 16776-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 16776-2019.xlsx", "A 16776-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 16776-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 16776-2019.png", "A 16776-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 16776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 16776-2019.docx", "A 16776-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 16776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 16776-2019.docx", "A 16776-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 16776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 16776-2019.docx", "A 16776-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 16776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 16776-2019.docx", "A 16776-2019")</f>
         <v/>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,27 +1232,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 29873-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 29873-2022.xlsx", "A 29873-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 29873-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 29873-2022.png", "A 29873-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 29873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 29873-2022.docx", "A 29873-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 29873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 29873-2022.docx", "A 29873-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 29873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 29873-2022.docx", "A 29873-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 29873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 29873-2022.docx", "A 29873-2022")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,27 +1326,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 16030-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 16030-2023.xlsx", "A 16030-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 16030-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 16030-2023.png", "A 16030-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 16030-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 16030-2023.docx", "A 16030-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 16030-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 16030-2023.docx", "A 16030-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 16030-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 16030-2023.docx", "A 16030-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 16030-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 16030-2023.docx", "A 16030-2023")</f>
         <v/>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,27 +1418,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 33313-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 33313-2020.xlsx", "A 33313-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 33313-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 33313-2020.png", "A 33313-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 33313-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 33313-2020.docx", "A 33313-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 33313-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 33313-2020.docx", "A 33313-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 33313-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 33313-2020.docx", "A 33313-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 33313-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 33313-2020.docx", "A 33313-2020")</f>
         <v/>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,27 +1505,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 33836-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 33836-2020.xlsx", "A 33836-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 33836-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 33836-2020.png", "A 33836-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 33836-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 33836-2020.docx", "A 33836-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 33836-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 33836-2020.docx", "A 33836-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 33836-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 33836-2020.docx", "A 33836-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 33836-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 33836-2020.docx", "A 33836-2020")</f>
         <v/>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,27 +1597,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 62610-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 62610-2021.xlsx", "A 62610-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 62610-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 62610-2021.png", "A 62610-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 62610-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 62610-2021.docx", "A 62610-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 62610-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 62610-2021.docx", "A 62610-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 62610-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 62610-2021.docx", "A 62610-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 62610-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 62610-2021.docx", "A 62610-2021")</f>
         <v/>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1683,27 +1683,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 55256-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 55256-2018.xlsx", "A 55256-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 55256-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 55256-2018.png", "A 55256-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 55256-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 55256-2018.docx", "A 55256-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 55256-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 55256-2018.docx", "A 55256-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 55256-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 55256-2018.docx", "A 55256-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 55256-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 55256-2018.docx", "A 55256-2018")</f>
         <v/>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,27 +1774,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 24913-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 24913-2019.xlsx", "A 24913-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 24913-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 24913-2019.png", "A 24913-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 24913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 24913-2019.docx", "A 24913-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 24913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 24913-2019.docx", "A 24913-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 24913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 24913-2019.docx", "A 24913-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 24913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 24913-2019.docx", "A 24913-2019")</f>
         <v/>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,27 +1865,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 32337-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 32337-2019.xlsx", "A 32337-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 32337-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 32337-2019.png", "A 32337-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 32337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 32337-2019.docx", "A 32337-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 32337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 32337-2019.docx", "A 32337-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 32337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 32337-2019.docx", "A 32337-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 32337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 32337-2019.docx", "A 32337-2019")</f>
         <v/>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,27 +1956,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 50195-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 50195-2019.xlsx", "A 50195-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 50195-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 50195-2019.png", "A 50195-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 50195-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 50195-2019.docx", "A 50195-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 50195-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 50195-2019.docx", "A 50195-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 50195-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 50195-2019.docx", "A 50195-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 50195-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 50195-2019.docx", "A 50195-2019")</f>
         <v/>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2047,27 +2047,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 57990-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 57990-2019.xlsx", "A 57990-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 57990-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 57990-2019.png", "A 57990-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 57990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 57990-2019.docx", "A 57990-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 57990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 57990-2019.docx", "A 57990-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 57990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 57990-2019.docx", "A 57990-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 57990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 57990-2019.docx", "A 57990-2019")</f>
         <v/>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2138,27 +2138,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 33033-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 33033-2020.xlsx", "A 33033-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 33033-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 33033-2020.png", "A 33033-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 33033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 33033-2020.docx", "A 33033-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 33033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 33033-2020.docx", "A 33033-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 33033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 33033-2020.docx", "A 33033-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 33033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 33033-2020.docx", "A 33033-2020")</f>
         <v/>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,27 +2229,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 42855-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 42855-2020.xlsx", "A 42855-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 42855-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 42855-2020.png", "A 42855-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 42855-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 42855-2020.docx", "A 42855-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 42855-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 42855-2020.docx", "A 42855-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 42855-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 42855-2020.docx", "A 42855-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 42855-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 42855-2020.docx", "A 42855-2020")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2320,27 +2320,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 70227-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 70227-2021.xlsx", "A 70227-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 70227-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 70227-2021.png", "A 70227-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 70227-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 70227-2021.docx", "A 70227-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 70227-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 70227-2021.docx", "A 70227-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 70227-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 70227-2021.docx", "A 70227-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 70227-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 70227-2021.docx", "A 70227-2021")</f>
         <v/>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,27 +2406,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 31242-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 31242-2022.xlsx", "A 31242-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 31242-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 31242-2022.png", "A 31242-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 31242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 31242-2022.docx", "A 31242-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 31242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 31242-2022.docx", "A 31242-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 31242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 31242-2022.docx", "A 31242-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 31242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 31242-2022.docx", "A 31242-2022")</f>
         <v/>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,27 +2497,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 14971-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 14971-2023.xlsx", "A 14971-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 14971-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 14971-2023.png", "A 14971-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 14971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 14971-2023.docx", "A 14971-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 14971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 14971-2023.docx", "A 14971-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 14971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 14971-2023.docx", "A 14971-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 14971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 14971-2023.docx", "A 14971-2023")</f>
         <v/>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,31 +2583,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 38557-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 38557-2023.xlsx", "A 38557-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 38557-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 38557-2023.png", "A 38557-2023")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/knärot/A 38557-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/knärot/A 38557-2023.png", "A 38557-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 38557-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 38557-2023.docx", "A 38557-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 38557-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 38557-2023.docx", "A 38557-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 38557-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 38557-2023.docx", "A 38557-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 38557-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 38557-2023.docx", "A 38557-2023")</f>
         <v/>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,27 +2672,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 50665-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 50665-2018.xlsx", "A 50665-2018")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 50665-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 50665-2018.png", "A 50665-2018")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 50665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 50665-2018.docx", "A 50665-2018")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 50665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 50665-2018.docx", "A 50665-2018")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 50665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 50665-2018.docx", "A 50665-2018")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 50665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 50665-2018.docx", "A 50665-2018")</f>
         <v/>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,27 +2762,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 16793-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 16793-2019.xlsx", "A 16793-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 16793-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 16793-2019.png", "A 16793-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 16793-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 16793-2019.docx", "A 16793-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 16793-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 16793-2019.docx", "A 16793-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 16793-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 16793-2019.docx", "A 16793-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 16793-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 16793-2019.docx", "A 16793-2019")</f>
         <v/>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2852,27 +2852,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 46134-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 46134-2019.xlsx", "A 46134-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 46134-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 46134-2019.png", "A 46134-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 46134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 46134-2019.docx", "A 46134-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 46134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 46134-2019.docx", "A 46134-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 46134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 46134-2019.docx", "A 46134-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 46134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 46134-2019.docx", "A 46134-2019")</f>
         <v/>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,27 +2942,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 42854-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 42854-2020.xlsx", "A 42854-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 42854-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 42854-2020.png", "A 42854-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 42854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 42854-2020.docx", "A 42854-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 42854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 42854-2020.docx", "A 42854-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 42854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 42854-2020.docx", "A 42854-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 42854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 42854-2020.docx", "A 42854-2020")</f>
         <v/>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,27 +3032,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 39289-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 39289-2021.xlsx", "A 39289-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 39289-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 39289-2021.png", "A 39289-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 39289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 39289-2021.docx", "A 39289-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 39289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 39289-2021.docx", "A 39289-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 39289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 39289-2021.docx", "A 39289-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 39289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 39289-2021.docx", "A 39289-2021")</f>
         <v/>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,27 +3122,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 60597-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 60597-2021.xlsx", "A 60597-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 60597-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 60597-2021.png", "A 60597-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 60597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 60597-2021.docx", "A 60597-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 60597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 60597-2021.docx", "A 60597-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 60597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 60597-2021.docx", "A 60597-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 60597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 60597-2021.docx", "A 60597-2021")</f>
         <v/>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,27 +3212,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 65518-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 65518-2021.xlsx", "A 65518-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 65518-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 65518-2021.png", "A 65518-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 65518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 65518-2021.docx", "A 65518-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 65518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 65518-2021.docx", "A 65518-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 65518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 65518-2021.docx", "A 65518-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 65518-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 65518-2021.docx", "A 65518-2021")</f>
         <v/>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,27 +3302,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 47700-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 47700-2022.xlsx", "A 47700-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 47700-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 47700-2022.png", "A 47700-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 47700-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 47700-2022.docx", "A 47700-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 47700-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 47700-2022.docx", "A 47700-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 47700-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 47700-2022.docx", "A 47700-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 47700-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 47700-2022.docx", "A 47700-2022")</f>
         <v/>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3392,27 +3392,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 49756-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 49756-2022.xlsx", "A 49756-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 49756-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 49756-2022.png", "A 49756-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 49756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 49756-2022.docx", "A 49756-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 49756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 49756-2022.docx", "A 49756-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 49756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 49756-2022.docx", "A 49756-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 49756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 49756-2022.docx", "A 49756-2022")</f>
         <v/>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3482,27 +3482,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 59071-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 59071-2022.xlsx", "A 59071-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 59071-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 59071-2022.png", "A 59071-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 59071-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 59071-2022.docx", "A 59071-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 59071-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 59071-2022.docx", "A 59071-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 59071-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 59071-2022.docx", "A 59071-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 59071-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 59071-2022.docx", "A 59071-2022")</f>
         <v/>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3572,27 +3572,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 14979-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 14979-2023.xlsx", "A 14979-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 14979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 14979-2023.png", "A 14979-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 14979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 14979-2023.docx", "A 14979-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 14979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 14979-2023.docx", "A 14979-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 14979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 14979-2023.docx", "A 14979-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 14979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 14979-2023.docx", "A 14979-2023")</f>
         <v/>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3657,27 +3657,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 15999-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/artfynd/A 15999-2023.xlsx", "A 15999-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 15999-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/kartor/A 15999-2023.png", "A 15999-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 15999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomål/A 15999-2023.docx", "A 15999-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 15999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/klagomålsmail/A 15999-2023.docx", "A 15999-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 15999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsyn/A 15999-2023.docx", "A 15999-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 15999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PAJALA/tillsynsmail/A 15999-2023.docx", "A 15999-2023")</f>
         <v/>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
         <v>43314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43374</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>43376</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43378</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43388</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43419</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43431</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43440</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43487</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43538</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43572</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43574</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43594</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43602</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43647</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43665</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43672</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43696</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43711</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43712</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43717</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43725</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43739</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43756</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43770</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>43780</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>43782</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>43791</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>43815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43892</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43910</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43938</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43966</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>43978</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>43979</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43987</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44015</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44021</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44028</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44039</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44060</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44063</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44071</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44081</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44083</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44088</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44091</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44096</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44097</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44117</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>44126</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44132</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44155</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44158</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44169</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44172</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44173</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>44174</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44181</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44218</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44231</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44236</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44237</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>44277</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44278</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44308</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44320</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44322</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44330</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44356</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44364</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>44370</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44376</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44379</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44385</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44387</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44392</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44401</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44424</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44427</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44438</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44442</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44449</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>44455</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44462</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44471</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44473</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44476</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44489</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44513</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44522</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44523</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44532</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44539</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44574</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44578</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44587</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44588</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44592</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44608</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44615</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44622</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44634</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>44636</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44641</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44642</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>44687</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44715</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44727</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44728</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44741</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>44749</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>44760</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>44778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44791</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44796</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>44803</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>44804</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44816</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44818</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44824</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44833</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>44834</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>44844</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29171,7 +29171,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44853</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29838,7 +29838,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29895,7 +29895,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44862</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44867</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44869</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44875</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44879</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44882</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44887</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31127,7 +31127,7 @@
         <v>44893</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44895</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31640,7 +31640,7 @@
         <v>44911</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>44916</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>44923</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44930</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32101,7 +32101,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>44954</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44960</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44985</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44987</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>45014</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45019</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45027</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45033</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>45055</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>45058</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>45062</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45064</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35363,7 +35363,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35425,7 +35425,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35487,7 +35487,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>45098</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36030,7 +36030,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36087,7 +36087,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36206,7 +36206,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>45113</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45117</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45118</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37262,7 +37262,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37319,7 +37319,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43342</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43374</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>43376</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43378</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43381</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43385</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43388</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43397</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43404</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43418</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43419</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43423</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43431</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43432</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43434</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43439</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43440</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43476</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43487</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43497</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43507</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43538</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43567</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43571</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43572</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43574</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43591</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43594</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43602</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43647</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43650</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43661</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43665</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43672</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43684</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43690</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43692</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43696</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43699</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43707</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43710</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43711</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43712</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43717</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43725</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43739</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43749</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43752</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43756</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>43762</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43770</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>43780</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>43782</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>43791</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>43815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>43816</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43846</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43850</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43853</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43858</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>43861</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43892</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43910</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43938</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43941</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43966</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43969</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43976</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>43978</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>43979</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>43987</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43991</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43997</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44015</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44018</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44021</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44025</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44028</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44034</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44039</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44048</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44060</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44063</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44071</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44079</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44081</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44083</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44088</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44091</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44096</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44097</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44117</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44123</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>44126</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44132</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>44147</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>44151</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44155</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44158</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44169</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44172</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>44173</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>44174</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44181</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44218</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44223</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44231</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44236</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44237</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>44277</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44278</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44308</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44319</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44320</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44322</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44330</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44356</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44364</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44369</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>44370</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44376</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44379</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44383</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44385</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44387</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44389</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44392</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44401</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44412</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44417</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44424</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44427</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44438</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44442</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44449</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44451</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>44455</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44462</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44464</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44471</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44473</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44476</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44489</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44496</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44513</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44521</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44522</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44523</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44532</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44539</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44574</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44578</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44587</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44588</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44592</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44608</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44615</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44622</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44627</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44634</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>44636</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44641</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44642</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44684</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>44687</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44691</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>44700</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44715</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44727</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44728</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44741</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44743</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>44749</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>44755</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>44756</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>44760</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>44778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44791</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44796</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>44803</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>44804</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>44816</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44818</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>44820</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44824</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44833</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>44834</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44837</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44839</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>44844</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44845</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29171,7 +29171,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>44848</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44853</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>44854</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44859</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44860</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29838,7 +29838,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29895,7 +29895,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>44861</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44862</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44867</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44869</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44874</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44875</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44879</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44882</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44884</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44887</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44892</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31127,7 +31127,7 @@
         <v>44893</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44894</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44895</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44908</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31640,7 +31640,7 @@
         <v>44911</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>44916</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>44923</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44930</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>44944</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>44945</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32101,7 +32101,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>44954</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>44958</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>44959</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44960</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44968</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         <v>44973</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33251,7 +33251,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>44985</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
         <v>44987</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45002</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45006</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45012</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>45014</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45019</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45027</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45033</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45036</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>45055</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>45058</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>45062</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45064</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45072</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35363,7 +35363,7 @@
         <v>45079</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35425,7 +35425,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35487,7 +35487,7 @@
         <v>45085</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35549,7 +35549,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>45098</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45099</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>45103</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36030,7 +36030,7 @@
         <v>45105</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36087,7 +36087,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36206,7 +36206,7 @@
         <v>45110</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>45112</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>45113</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45117</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45118</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45121</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>45128</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>45131</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>45147</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45153</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>45159</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45160</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37262,7 +37262,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37319,7 +37319,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44012</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44025</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44039</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44060</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44063</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44079</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44081</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44083</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44088</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44091</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44097</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44123</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44132</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44151</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44155</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44158</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44169</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44172</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44173</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44223</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44231</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44236</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44277</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44278</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44279</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44322</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44330</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44364</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44369</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44376</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44379</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44383</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44385</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44387</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44389</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44392</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44401</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44412</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44427</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44438</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44442</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44449</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44451</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44455</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44462</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44464</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44471</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44473</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44504</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44513</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44521</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44522</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44523</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44532</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44539</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44547</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44568</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44578</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44587</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44588</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44615</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44622</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44634</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44636</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44641</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44642</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44684</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44687</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44691</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>44700</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44715</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44727</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44728</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44743</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44749</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44755</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44760</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44790</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44791</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44796</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44804</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44818</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44820</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44833</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44834</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44844</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44845</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44848</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44853</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44854</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44860</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44861</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44862</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44869</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44874</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44879</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44882</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44884</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44887</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44892</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44893</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44895</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44910</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44911</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44916</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44923</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44930</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44944</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44945</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44954</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44958</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44959</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44960</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44964</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44968</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44985</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44987</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44988</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45019</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45022</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45033</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45036</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45054</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45055</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45058</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45062</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45064</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45076</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>45079</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45085</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45098</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45103</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45112</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45113</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45114</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45117</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45118</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45121</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45128</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45131</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45147</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45152</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45153</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45159</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45160</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>45169</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y614"/>
+  <dimension ref="A1:Y615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44012</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44025</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44039</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44060</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44063</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44079</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44081</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44083</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44088</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44091</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44097</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44123</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44132</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44151</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44155</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44158</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44169</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44172</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44173</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44223</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44231</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44236</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44277</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44278</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44279</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44322</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44330</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44364</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44369</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44376</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44379</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44383</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44385</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44387</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44389</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44392</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44401</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44412</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44427</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44438</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44442</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44449</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44451</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44455</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44462</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44464</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44471</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44473</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44504</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44513</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44521</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44522</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44523</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44532</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44539</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44547</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44568</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44578</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44587</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44588</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44615</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44622</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44634</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44636</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44641</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44642</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44684</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44687</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44691</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>44700</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44715</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44727</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44728</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44743</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44749</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44755</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44760</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44790</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44791</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44796</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44804</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44818</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44820</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44833</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44834</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44844</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44845</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44848</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44853</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44854</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44860</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44861</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44862</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44869</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44874</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44879</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44882</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44884</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44887</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44892</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44893</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44895</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44910</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44911</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44916</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44923</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44930</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44944</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44945</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44954</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44958</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44959</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44960</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44964</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44968</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44985</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44987</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44988</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45019</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45022</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45033</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45036</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45054</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45055</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45058</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45062</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45064</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45076</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>45079</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45085</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45098</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45103</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45112</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45113</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45114</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45117</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45118</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45121</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45128</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45131</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45147</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45152</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45153</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45159</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45160</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
       </c>
       <c r="R613" s="2" t="inlineStr"/>
     </row>
-    <row r="614">
+    <row r="614" ht="15" customHeight="1">
       <c r="A614" t="inlineStr">
         <is>
           <t>A 40411-2023</t>
@@ -37575,7 +37575,7 @@
         <v>45169</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37626,6 +37626,63 @@
         <v>0</v>
       </c>
       <c r="R614" s="2" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>A 45238-2023</t>
+        </is>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>PAJALA</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" t="n">
+        <v>0</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y615"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44012</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44025</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44039</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44060</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44063</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44079</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44081</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44083</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44088</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44091</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44097</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44123</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44132</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44151</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44155</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44158</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44169</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44172</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44173</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44223</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44231</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44236</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44277</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44278</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44279</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44322</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44330</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44364</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44369</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44376</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44379</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44383</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44385</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44387</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44389</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44392</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44401</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44412</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44427</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44438</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44442</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44449</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44451</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44455</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44462</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44464</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44471</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44473</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44504</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44513</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44521</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44522</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44523</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44532</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44539</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44547</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44568</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44578</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44587</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44588</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44615</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44622</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44634</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44636</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44641</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44642</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44684</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44687</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44691</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>44700</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44715</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44727</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44728</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44743</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44749</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44755</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44760</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44790</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44791</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44796</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44804</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44818</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44820</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44833</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44834</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44844</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44845</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44848</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44853</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44854</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44860</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44861</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44862</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44869</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44874</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44879</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44882</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44884</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44887</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44892</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44893</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44895</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44910</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44911</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44916</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44923</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44930</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44944</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44945</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44954</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44958</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44959</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44960</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44964</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44968</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44985</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44987</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44988</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45019</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45022</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45033</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45036</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45054</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45055</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45058</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45062</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45064</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45076</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>45079</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45085</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45098</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45103</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45112</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45113</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45114</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45117</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45118</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45121</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45128</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45131</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45147</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45152</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45153</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45159</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45160</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>45169</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
       </c>
       <c r="R614" s="2" t="inlineStr"/>
     </row>
-    <row r="615">
+    <row r="615" ht="15" customHeight="1">
       <c r="A615" t="inlineStr">
         <is>
           <t>A 45238-2023</t>
@@ -37637,7 +37637,7 @@
         <v>45191</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37683,6 +37683,120 @@
         <v>0</v>
       </c>
       <c r="R615" s="2" t="inlineStr"/>
+    </row>
+    <row r="616" ht="15" customHeight="1">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>A 47102-2023</t>
+        </is>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C616" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>PAJALA</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" t="n">
+        <v>0</v>
+      </c>
+      <c r="O616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" s="2" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>A 47126-2023</t>
+        </is>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C617" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>PAJALA</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N617" t="n">
+        <v>0</v>
+      </c>
+      <c r="O617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44012</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44025</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44039</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44060</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44063</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44079</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44081</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44083</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44088</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44091</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44097</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44123</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44132</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44151</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44155</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44158</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44169</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44172</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44173</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44223</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44231</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44236</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44277</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44278</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44279</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44322</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44330</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44364</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44369</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44376</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44379</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44383</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44385</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44387</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44389</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44392</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44401</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44412</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44427</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44438</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44442</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44449</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44451</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44455</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44462</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44464</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44471</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44473</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44504</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44513</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44521</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44522</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44523</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44532</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44539</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44547</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44568</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44578</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44587</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44588</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44615</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44622</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44634</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44636</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44641</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44642</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44684</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44687</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44691</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>44700</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44715</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44727</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44728</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44743</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44749</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44755</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44760</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44790</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44791</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44796</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44804</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44818</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44820</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44833</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44834</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44844</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44845</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44848</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44853</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44854</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44860</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44861</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44862</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44869</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44874</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44879</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44882</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44884</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44887</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44892</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44893</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44895</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44910</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44911</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44916</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44923</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44930</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44944</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44945</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44954</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44958</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44959</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44960</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44964</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44968</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44985</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44987</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44988</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45019</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45022</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45033</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45036</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45054</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45055</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45058</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45062</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45064</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45076</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>45079</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45085</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45098</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45103</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45112</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45113</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45114</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45117</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45118</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45121</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45128</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45131</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45147</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45152</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45153</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45159</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45160</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>45169</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45191</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45196</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45196</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44012</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44025</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44039</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44060</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44063</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44079</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44081</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44083</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44088</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44091</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44097</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44123</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44132</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44151</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44155</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44158</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44169</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44172</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44173</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44223</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44231</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44236</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44277</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44278</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44279</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44322</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44330</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44364</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44369</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44376</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44379</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44383</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44385</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44387</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44389</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44392</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44401</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44412</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44427</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44438</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44442</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44449</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44451</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44455</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44462</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44464</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44471</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44473</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44504</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44513</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44521</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44522</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44523</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44532</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44539</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44547</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44568</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44578</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44587</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44588</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44615</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44622</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44634</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44636</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44641</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44642</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44684</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44687</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44691</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>44700</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44715</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44727</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44728</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44743</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44749</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44755</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44760</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44790</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44791</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44796</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44804</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44818</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44820</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44833</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44834</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44844</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44845</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44848</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44853</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44854</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44860</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44861</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44862</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44869</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44874</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44879</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44882</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44884</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44887</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44892</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44893</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44895</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44910</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44911</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44916</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44923</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44930</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44944</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44945</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44954</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44958</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44959</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44960</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44964</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44968</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44985</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44987</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44988</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45019</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45022</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45033</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45036</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45054</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45055</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45058</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45062</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45064</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45076</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>45079</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45085</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45098</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45103</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45112</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45113</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45114</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45117</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45118</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45121</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45128</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45131</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45147</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45152</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45153</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45159</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45160</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>45169</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45191</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45196</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45196</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44012</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44018</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44025</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44025</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44025</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44025</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44034</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44034</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44034</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44034</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44039</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44060</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44062</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44062</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44063</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44079</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44079</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44079</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44079</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44079</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44081</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44083</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44088</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44091</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44097</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44123</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44132</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44147</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44147</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44151</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44151</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44151</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44155</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44158</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44169</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44172</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44173</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44174</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44181</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44223</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44223</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44231</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44236</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44277</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44278</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44279</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44279</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44308</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44319</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44319</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44319</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44320</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44322</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44330</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44364</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44369</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44369</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44376</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44379</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44383</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44383</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44383</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44383</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44383</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44385</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44387</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44389</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44389</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44392</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44401</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44412</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44412</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44417</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44417</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44417</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44417</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44417</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44417</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44417</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44417</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44417</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44417</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44417</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44427</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44438</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44442</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44449</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44451</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44451</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44451</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44451</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44451</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44451</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44451</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44451</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44455</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44462</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44464</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44464</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44471</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44473</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44504</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44504</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44513</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44517</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44517</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44521</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44521</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44522</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44523</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44532</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44539</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44547</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44552</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44568</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44574</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44578</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44587</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44588</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44615</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44622</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44627</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44627</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44627</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44627</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44634</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44636</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44641</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44642</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44684</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44684</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44684</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44684</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44687</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44691</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44691</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44691</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44691</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44691</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44691</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44691</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44691</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44691</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44700</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>44700</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44715</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44727</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44728</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44743</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44743</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44749</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44755</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44755</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44755</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44755</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44755</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44755</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44755</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44760</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44790</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44790</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44791</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44796</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44804</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44816</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44818</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44820</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44820</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44824</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44833</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44834</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>44837</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44837</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44837</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44839</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44844</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44845</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44845</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44845</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44848</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44848</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44853</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>44854</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44854</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44859</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44859</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44860</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44860</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44860</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44861</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44861</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44862</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44869</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44874</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44874</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44874</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44874</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44879</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44882</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44884</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44884</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44887</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44892</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44892</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44893</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44894</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44895</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44910</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44910</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44911</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44916</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44923</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44930</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44938</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44944</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44944</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44945</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44945</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44945</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44954</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44958</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44959</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44959</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44959</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44960</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44964</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44968</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44968</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44968</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44968</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44973</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44973</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44985</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44987</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44988</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44988</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45002</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45002</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45006</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45012</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45012</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45012</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45014</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45019</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45022</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45033</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45036</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45036</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45036</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45036</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45054</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45054</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45054</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45055</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45058</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45062</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45064</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45072</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45076</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45076</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45079</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>45079</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45085</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>45085</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45098</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45099</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45099</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45103</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>45103</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45103</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45105</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45106</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45110</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45112</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45113</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45114</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45114</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45114</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45117</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45118</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45121</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45128</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45131</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45147</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45152</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45153</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45159</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45160</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45160</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>45169</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45191</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45196</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45196</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt PAJALA.xlsx
+++ b/Översikt PAJALA.xlsx
@@ -572,7 +572,7 @@
         <v>45121</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44449</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44503</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44034</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>43549</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44755</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45021</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44022</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44022</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43734</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44535</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45160</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>43718</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44078</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44862</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44904</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45014</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45024</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45187</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43321</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43341</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43342</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43368</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43374</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43385</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43395</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43397</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43404</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43409</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43413</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43423</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43423</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43426</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>43434</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>43434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43439</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43439</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43454</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43497</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43507</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43507</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43507</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43538</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43549</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43549</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43570</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43571</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43571</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43574</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43580</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43580</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43587</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43591</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43591</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43599</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43626</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43626</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>43635</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43650</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43650</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43655</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43655</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43655</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43661</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43672</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43684</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43684</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43690</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43690</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43692</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43696</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43698</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43698</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43699</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43699</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43699</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43699</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43711</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43725</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43739</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>43749</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>43752</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>43752</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>43752</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43752</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43756</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43762</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43763</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43763</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43763</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43763</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43768</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43776</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43816</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43816</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43850</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43861</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43861</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43867</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43892</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43895</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>43937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>43938</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43941</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>43941</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>43966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>43969</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43969</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43976</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43976</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>43978</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43980</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>43980</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43987</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43991</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43991</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43991</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43991</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43997</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43997</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>44012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ 